--- a/L04P03 - Aanvraag Proeve Examenbureau/2024_Stagebedrijven_Smart Technology.xlsx
+++ b/L04P03 - Aanvraag Proeve Examenbureau/2024_Stagebedrijven_Smart Technology.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arjan/Documents/GitHub/Onderwijs/L04P03 - Aanvraag Proeve Examenbureau/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9398336D-92F2-1D44-8839-E154F76FB45D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C88A3381-8BA5-A842-BAEC-01F881C30E84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2005" uniqueCount="592">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2009" uniqueCount="595">
   <si>
     <t>Startdatum dossier</t>
   </si>
@@ -1868,6 +1868,15 @@
   </si>
   <si>
     <t>Komt vanaf</t>
+  </si>
+  <si>
+    <t>Naar HBO</t>
+  </si>
+  <si>
+    <t>0639814358</t>
+  </si>
+  <si>
+    <t>0638756616</t>
   </si>
 </sst>
 </file>
@@ -1877,7 +1886,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-10409]d\-m\-yyyy"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -1916,6 +1925,11 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -2006,7 +2020,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2054,12 +2068,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
@@ -2075,6 +2083,22 @@
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -6730,7 +6754,7 @@
   <dimension ref="A1:I46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="169" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6763,10 +6787,10 @@
       <c r="G1" s="15" t="s">
         <v>450</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="21" t="s">
         <v>590</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="I1" s="21" t="s">
         <v>591</v>
       </c>
     </row>
@@ -6987,7 +7011,9 @@
       <c r="D11" s="3" t="s">
         <v>563</v>
       </c>
-      <c r="E11" s="3"/>
+      <c r="E11" s="14" t="s">
+        <v>594</v>
+      </c>
       <c r="F11" s="3">
         <v>2018</v>
       </c>
@@ -6996,41 +7022,42 @@
       </c>
       <c r="I11" s="3"/>
     </row>
-    <row r="12" spans="1:9" s="25" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="24">
-        <v>36</v>
-      </c>
-      <c r="B12" s="24" t="s">
-        <v>535</v>
-      </c>
-      <c r="C12" s="24" t="s">
-        <v>536</v>
-      </c>
-      <c r="D12" s="24" t="s">
-        <v>537</v>
-      </c>
-      <c r="E12" s="24" t="s">
-        <v>540</v>
-      </c>
-      <c r="F12" s="24">
+    <row r="12" spans="1:9" s="23" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>38</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>582</v>
+      </c>
+      <c r="F12" s="3">
         <v>2018</v>
       </c>
-      <c r="G12" s="24"/>
-      <c r="I12" s="24"/>
+      <c r="G12" s="3">
+        <v>2022</v>
+      </c>
+      <c r="H12"/>
+      <c r="I12" s="27"/>
     </row>
     <row r="13" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3" t="s">
-        <v>564</v>
+        <v>569</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="F13" s="3">
         <v>2018</v>
@@ -7039,128 +7066,134 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="25" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="24">
-        <v>39</v>
-      </c>
-      <c r="B14" s="24" t="s">
-        <v>532</v>
-      </c>
-      <c r="C14" s="24" t="s">
-        <v>533</v>
-      </c>
-      <c r="D14" s="24" t="s">
-        <v>534</v>
-      </c>
-      <c r="E14" s="24" t="s">
-        <v>539</v>
-      </c>
-      <c r="F14" s="24">
+    <row r="14" spans="1:9" s="23" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>43</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3" t="s">
+        <v>571</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>580</v>
+      </c>
+      <c r="F14" s="3">
         <v>2018</v>
       </c>
-      <c r="G14" s="24"/>
+      <c r="G14" s="3">
+        <v>2022</v>
+      </c>
+      <c r="H14"/>
+      <c r="I14"/>
     </row>
     <row r="15" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>566</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>533</v>
-      </c>
+        <v>572</v>
+      </c>
+      <c r="C15" s="3"/>
       <c r="D15" s="3" t="s">
-        <v>538</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>567</v>
+        <v>573</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>579</v>
       </c>
       <c r="F15" s="3">
         <v>2018</v>
       </c>
       <c r="G15" s="3">
-        <v>2023</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="C16" s="3"/>
+        <v>566</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>533</v>
+      </c>
       <c r="D16" s="3" t="s">
-        <v>569</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>581</v>
+        <v>538</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>567</v>
       </c>
       <c r="F16" s="3">
         <v>2018</v>
       </c>
       <c r="G16" s="3">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>570</v>
-      </c>
-      <c r="C17" s="3"/>
+        <v>514</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>456</v>
+      </c>
       <c r="D17" s="3" t="s">
-        <v>571</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>580</v>
+        <v>513</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>515</v>
       </c>
       <c r="F17" s="3">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="G17" s="3">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>572</v>
-      </c>
-      <c r="C18" s="3"/>
+        <v>496</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>492</v>
+      </c>
       <c r="D18" s="3" t="s">
-        <v>573</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>579</v>
+        <v>495</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>497</v>
       </c>
       <c r="F18" s="3">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="G18" s="3">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>514</v>
+        <v>453</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>513</v>
+        <v>451</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>515</v>
+        <v>454</v>
       </c>
       <c r="F19" s="3">
         <v>2019</v>
@@ -7169,21 +7202,21 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>492</v>
+        <v>456</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="F20" s="3">
         <v>2019</v>
@@ -7192,21 +7225,21 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>453</v>
+        <v>469</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>451</v>
+        <v>468</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>454</v>
+        <v>470</v>
       </c>
       <c r="F21" s="3">
         <v>2019</v>
@@ -7215,21 +7248,21 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>456</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="F22" s="3">
         <v>2019</v>
@@ -7238,21 +7271,21 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>469</v>
+        <v>489</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>456</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>468</v>
+        <v>488</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>470</v>
+        <v>490</v>
       </c>
       <c r="F23" s="3">
         <v>2019</v>
@@ -7261,44 +7294,44 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>456</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="F24" s="3">
         <v>2019</v>
       </c>
       <c r="G24" s="3">
-        <v>2024</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>483</v>
+        <v>472</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>456</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>482</v>
+        <v>471</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>484</v>
+        <v>473</v>
       </c>
       <c r="F25" s="3">
         <v>2019</v>
@@ -7307,21 +7340,21 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>489</v>
+        <v>460</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>456</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>488</v>
+        <v>459</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>490</v>
+        <v>461</v>
       </c>
       <c r="F26" s="3">
         <v>2019</v>
@@ -7330,21 +7363,21 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>502</v>
+        <v>511</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>456</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>501</v>
+        <v>510</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>503</v>
+        <v>512</v>
       </c>
       <c r="F27" s="3">
         <v>2019</v>
@@ -7353,63 +7386,69 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="28" spans="1:7" s="25" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="24">
-        <v>14</v>
-      </c>
-      <c r="B28" s="24" t="s">
-        <v>516</v>
-      </c>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24" t="s">
-        <v>517</v>
-      </c>
-      <c r="E28" s="24" t="s">
-        <v>526</v>
-      </c>
-      <c r="F28" s="24">
+    <row r="28" spans="1:9" s="23" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>30</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="F28" s="3">
         <v>2019</v>
       </c>
-      <c r="G28" s="24"/>
-    </row>
-    <row r="29" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G28" s="3">
+        <v>2023</v>
+      </c>
+      <c r="H28"/>
+      <c r="I28"/>
+    </row>
+    <row r="29" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>463</v>
+        <v>480</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>456</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>462</v>
+        <v>479</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>464</v>
+        <v>481</v>
       </c>
       <c r="F29" s="3">
         <v>2019</v>
       </c>
       <c r="G29" s="3">
-        <v>2024</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>456</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>471</v>
+        <v>451</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="F30" s="3">
         <v>2019</v>
@@ -7418,21 +7457,21 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>456</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="F31" s="3">
         <v>2019</v>
@@ -7441,44 +7480,46 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="32" spans="1:7" s="25" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="24">
-        <v>20</v>
-      </c>
-      <c r="B32" s="24" t="s">
-        <v>505</v>
-      </c>
-      <c r="C32" s="24" t="s">
+    <row r="32" spans="1:9" s="23" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="3">
+        <v>41</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="D32" s="24" t="s">
-        <v>504</v>
-      </c>
-      <c r="E32" s="24" t="s">
-        <v>506</v>
-      </c>
-      <c r="F32" s="24">
+      <c r="D32" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="F32" s="3">
         <v>2019</v>
       </c>
-      <c r="G32" s="24" t="s">
-        <v>531</v>
-      </c>
+      <c r="G32" s="3">
+        <v>2023</v>
+      </c>
+      <c r="H32"/>
+      <c r="I32"/>
     </row>
     <row r="33" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>511</v>
+        <v>493</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>456</v>
+        <v>492</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>510</v>
+        <v>491</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>512</v>
+        <v>494</v>
       </c>
       <c r="F33" s="3">
         <v>2019</v>
@@ -7489,94 +7530,103 @@
     </row>
     <row r="34" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>508</v>
+        <v>549</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>492</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>507</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>509</v>
+        <v>550</v>
+      </c>
+      <c r="E34" s="14" t="s">
+        <v>578</v>
       </c>
       <c r="F34" s="3">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="G34" s="3">
         <v>2023</v>
       </c>
+      <c r="I34" s="1" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="35" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>480</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>456</v>
+        <v>575</v>
+      </c>
+      <c r="C35" s="25" t="s">
+        <v>492</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>479</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>481</v>
+        <v>576</v>
+      </c>
+      <c r="E35" s="31" t="s">
+        <v>593</v>
       </c>
       <c r="F35" s="3">
-        <v>2019</v>
-      </c>
-      <c r="G35" s="3">
+        <v>2020</v>
+      </c>
+      <c r="G35" s="30">
         <v>2023</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>474</v>
+        <v>499</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>456</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>451</v>
+        <v>498</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>475</v>
+        <v>500</v>
       </c>
       <c r="F36" s="3">
         <v>2019</v>
       </c>
       <c r="G36" s="3">
-        <v>2023</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>456</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="F37" s="3">
         <v>2019</v>
       </c>
       <c r="G37" s="3">
-        <v>2023</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.2">
@@ -7603,183 +7653,190 @@
       </c>
     </row>
     <row r="39" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="3">
-        <v>41</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>477</v>
-      </c>
-      <c r="C39" s="3" t="s">
+      <c r="A39" s="22">
+        <v>20</v>
+      </c>
+      <c r="B39" s="22" t="s">
+        <v>505</v>
+      </c>
+      <c r="C39" s="22" t="s">
         <v>456</v>
       </c>
-      <c r="D39" s="3" t="s">
-        <v>476</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="F39" s="3">
+      <c r="D39" s="22" t="s">
+        <v>504</v>
+      </c>
+      <c r="E39" s="22" t="s">
+        <v>506</v>
+      </c>
+      <c r="F39" s="22">
         <v>2019</v>
       </c>
-      <c r="G39" s="17">
-        <v>2023</v>
-      </c>
+      <c r="G39" s="28" t="s">
+        <v>531</v>
+      </c>
+      <c r="H39" s="23"/>
+      <c r="I39" s="23"/>
     </row>
     <row r="40" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="3">
-        <v>45</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>493</v>
-      </c>
-      <c r="C40" s="3" t="s">
+      <c r="A40" s="22">
+        <v>36</v>
+      </c>
+      <c r="B40" s="22" t="s">
+        <v>535</v>
+      </c>
+      <c r="C40" s="22" t="s">
+        <v>536</v>
+      </c>
+      <c r="D40" s="22" t="s">
+        <v>537</v>
+      </c>
+      <c r="E40" s="22" t="s">
+        <v>540</v>
+      </c>
+      <c r="F40" s="22">
+        <v>2018</v>
+      </c>
+      <c r="G40" s="22"/>
+      <c r="H40" s="23"/>
+      <c r="I40" s="29"/>
+    </row>
+    <row r="41" spans="1:9" s="20" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="22">
+        <v>39</v>
+      </c>
+      <c r="B41" s="22" t="s">
+        <v>532</v>
+      </c>
+      <c r="C41" s="22" t="s">
+        <v>533</v>
+      </c>
+      <c r="D41" s="22" t="s">
+        <v>534</v>
+      </c>
+      <c r="E41" s="22" t="s">
+        <v>539</v>
+      </c>
+      <c r="F41" s="22">
+        <v>2018</v>
+      </c>
+      <c r="G41" s="22"/>
+      <c r="H41" s="23"/>
+      <c r="I41" s="23"/>
+    </row>
+    <row r="42" spans="1:9" s="20" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="22">
+        <v>14</v>
+      </c>
+      <c r="B42" s="22" t="s">
+        <v>516</v>
+      </c>
+      <c r="C42" s="22"/>
+      <c r="D42" s="22" t="s">
+        <v>517</v>
+      </c>
+      <c r="E42" s="22" t="s">
+        <v>526</v>
+      </c>
+      <c r="F42" s="22">
+        <v>2019</v>
+      </c>
+      <c r="G42" s="22"/>
+      <c r="H42" s="23"/>
+      <c r="I42" s="23"/>
+    </row>
+    <row r="43" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="19">
+        <v>7</v>
+      </c>
+      <c r="B43" s="19" t="s">
+        <v>518</v>
+      </c>
+      <c r="C43" s="19"/>
+      <c r="D43" s="19" t="s">
+        <v>519</v>
+      </c>
+      <c r="E43" s="19" t="s">
+        <v>527</v>
+      </c>
+      <c r="F43" s="19">
+        <v>2020</v>
+      </c>
+      <c r="G43" s="19"/>
+      <c r="H43" s="18" t="s">
+        <v>592</v>
+      </c>
+      <c r="I43" s="20"/>
+    </row>
+    <row r="44" spans="1:9" s="20" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="19">
+        <v>15</v>
+      </c>
+      <c r="B44" s="19" t="s">
+        <v>524</v>
+      </c>
+      <c r="C44" s="19" t="s">
         <v>492</v>
       </c>
-      <c r="D40" s="3" t="s">
-        <v>491</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>494</v>
-      </c>
-      <c r="F40" s="3">
-        <v>2019</v>
-      </c>
-      <c r="G40" s="3">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="21">
-        <v>7</v>
-      </c>
-      <c r="B41" s="21" t="s">
-        <v>518</v>
-      </c>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21" t="s">
-        <v>519</v>
-      </c>
-      <c r="E41" s="21" t="s">
-        <v>527</v>
-      </c>
-      <c r="F41" s="21">
+      <c r="D44" s="19" t="s">
+        <v>525</v>
+      </c>
+      <c r="E44" s="19" t="s">
+        <v>530</v>
+      </c>
+      <c r="F44" s="19">
         <v>2020</v>
       </c>
-      <c r="G41" s="21"/>
-    </row>
-    <row r="42" spans="1:9" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="21">
-        <v>15</v>
-      </c>
-      <c r="B42" s="21" t="s">
-        <v>524</v>
-      </c>
-      <c r="C42" s="21" t="s">
-        <v>492</v>
-      </c>
-      <c r="D42" s="21" t="s">
-        <v>525</v>
-      </c>
-      <c r="E42" s="21" t="s">
-        <v>530</v>
-      </c>
-      <c r="F42" s="21">
+      <c r="G44" s="19"/>
+    </row>
+    <row r="45" spans="1:9" s="20" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="19">
+        <v>24</v>
+      </c>
+      <c r="B45" s="19" t="s">
+        <v>520</v>
+      </c>
+      <c r="C45" s="19"/>
+      <c r="D45" s="19" t="s">
+        <v>521</v>
+      </c>
+      <c r="E45" s="19" t="s">
+        <v>528</v>
+      </c>
+      <c r="F45" s="19">
         <v>2020</v>
       </c>
-      <c r="G42" s="21"/>
-    </row>
-    <row r="43" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="3">
-        <v>19</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>549</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>492</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>550</v>
-      </c>
-      <c r="E43" s="14" t="s">
-        <v>578</v>
-      </c>
-      <c r="F43" s="3">
+      <c r="G45" s="19"/>
+      <c r="H45" s="18" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="24">
+        <v>29</v>
+      </c>
+      <c r="B46" s="24" t="s">
+        <v>522</v>
+      </c>
+      <c r="C46" s="26"/>
+      <c r="D46" s="24" t="s">
+        <v>523</v>
+      </c>
+      <c r="E46" s="26" t="s">
+        <v>529</v>
+      </c>
+      <c r="F46" s="24">
         <v>2020</v>
       </c>
-      <c r="G43" s="3">
-        <v>2023</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="21">
-        <v>24</v>
-      </c>
-      <c r="B44" s="21" t="s">
-        <v>520</v>
-      </c>
-      <c r="C44" s="21"/>
-      <c r="D44" s="21" t="s">
-        <v>521</v>
-      </c>
-      <c r="E44" s="21" t="s">
-        <v>528</v>
-      </c>
-      <c r="F44" s="21">
-        <v>2020</v>
-      </c>
-      <c r="G44" s="21"/>
-    </row>
-    <row r="45" spans="1:9" s="22" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="21">
-        <v>29</v>
-      </c>
-      <c r="B45" s="21" t="s">
-        <v>522</v>
-      </c>
-      <c r="C45" s="21"/>
-      <c r="D45" s="21" t="s">
-        <v>523</v>
-      </c>
-      <c r="E45" s="21" t="s">
-        <v>529</v>
-      </c>
-      <c r="F45" s="21">
-        <v>2020</v>
-      </c>
-      <c r="G45" s="21"/>
-    </row>
-    <row r="46" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="18">
-        <v>21</v>
-      </c>
-      <c r="B46" s="18" t="s">
-        <v>575</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="D46" s="18" t="s">
-        <v>576</v>
-      </c>
-      <c r="F46" s="18">
-        <v>2020</v>
-      </c>
-      <c r="G46">
-        <v>2023</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>577</v>
-      </c>
+      <c r="G46" s="26"/>
+      <c r="H46" s="20"/>
+      <c r="I46" s="20"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I1" xr:uid="{E1F2C1D7-A1EB-8148-887B-6086B066E5E8}"/>
+  <autoFilter ref="A1:I1" xr:uid="{E1F2C1D7-A1EB-8148-887B-6086B066E5E8}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I46">
+      <sortCondition ref="G1:G46"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7804,29 +7861,29 @@
     <col min="8" max="8" width="33.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:8" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="17" t="s">
         <v>4</v>
       </c>
     </row>
